--- a/Kicad/STM32F412ZGT6_GPIO_Interfaces.xlsx
+++ b/Kicad/STM32F412ZGT6_GPIO_Interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC8A84-C0E1-4001-83AF-B94DC4EF815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1255BA-302E-4702-AC22-4B83C56D6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="189">
   <si>
     <t>Interface</t>
   </si>
@@ -431,13 +431,175 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>SMTB-0927-TW-R</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>Sam ou quelqu'un d'autre</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Command Latch</t>
+  </si>
+  <si>
+    <t>Address Latch</t>
+  </si>
+  <si>
+    <t>Write Enable</t>
+  </si>
+  <si>
+    <t>Read Enable</t>
+  </si>
+  <si>
+    <t>Chip Enable</t>
+  </si>
+  <si>
+    <t>Ready/Busy Signal</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>WE#</t>
+  </si>
+  <si>
+    <t>RE#</t>
+  </si>
+  <si>
+    <t>CE#</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PG6</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>I/O0</t>
+  </si>
+  <si>
+    <t>I/O1</t>
+  </si>
+  <si>
+    <t>I/O2</t>
+  </si>
+  <si>
+    <t>I/O3</t>
+  </si>
+  <si>
+    <t>I/O4</t>
+  </si>
+  <si>
+    <t>I/O5</t>
+  </si>
+  <si>
+    <t>I/O6</t>
+  </si>
+  <si>
+    <t>I/O7</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>*Vérifier</t>
+  </si>
+  <si>
+    <t>Push-Pull</t>
+  </si>
+  <si>
+    <t>NWE</t>
+  </si>
+  <si>
+    <t>WP#</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>NWAIT</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NBL(01)</t>
+  </si>
+  <si>
+    <t>NE(1234)</t>
+  </si>
+  <si>
+    <t>Active low</t>
+  </si>
+  <si>
+    <t>Bank select + Active low</t>
+  </si>
+  <si>
+    <t>CLW</t>
+  </si>
+  <si>
+    <t>GND / Floating</t>
+  </si>
+  <si>
+    <t>R/B#</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>STM32 : p63 à 65</t>
+  </si>
+  <si>
+    <t>NAND : p12-13</t>
   </si>
 </sst>
 </file>
@@ -467,15 +629,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -628,11 +802,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,6 +847,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,6 +871,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +944,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,51 +1359,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N72"/>
+  <dimension ref="B2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="2"/>
-    <col min="11" max="11" width="33.6640625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="33.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="27" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="2"/>
-    <col min="14" max="14" width="27.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="27.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1149,43 +1413,43 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1195,19 +1459,19 @@
       <c r="H4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1217,21 +1481,21 @@
       <c r="H5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1241,49 +1505,49 @@
       <c r="H6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27">
         <v>2</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1293,21 +1557,21 @@
       <c r="H8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1317,67 +1581,67 @@
       <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="8" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1387,16 +1651,16 @@
       <c r="H12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1406,60 +1670,60 @@
       <c r="H13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="8" t="s">
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25">
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27">
         <v>4</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="H15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1469,16 +1733,16 @@
       <c r="H16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1488,60 +1752,60 @@
       <c r="H17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="8" t="s">
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25">
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27">
         <v>5</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1551,16 +1815,16 @@
       <c r="H20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1570,62 +1834,62 @@
       <c r="H21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="8" t="s">
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="27">
         <v>1</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1635,16 +1899,16 @@
       <c r="H24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1654,16 +1918,16 @@
       <c r="H25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1673,16 +1937,16 @@
       <c r="H26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1692,42 +1956,42 @@
       <c r="H27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27">
         <v>2</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="H28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1737,15 +2001,15 @@
       <c r="H29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1755,15 +2019,15 @@
       <c r="H30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1773,65 +2037,65 @@
       <c r="H31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="8" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="H32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27">
         <v>3</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +2105,7 @@
       <c r="H34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -1858,11 +2122,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +2136,7 @@
       <c r="H35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -1885,11 +2149,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +2163,7 @@
       <c r="H36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -1916,21 +2180,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="8" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="26"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="H37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>57</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -1947,27 +2211,27 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27">
         <v>6</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="14" t="s">
+      <c r="H38" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>58</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -1980,11 +2244,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2258,7 @@
       <c r="H39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -2011,11 +2275,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="26"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2289,7 @@
       <c r="H40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -2038,11 +2302,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="2" t="s">
         <v>7</v>
       </c>
@@ -2052,68 +2316,59 @@
       <c r="H41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="8" t="s">
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="9" t="s">
+      <c r="H42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="27">
         <v>1</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I43" s="14" t="s">
+      <c r="H43" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="32"/>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2123,57 +2378,57 @@
       <c r="H44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="8" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="9" t="s">
+      <c r="H45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27">
         <v>2</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2183,37 +2438,37 @@
       <c r="H47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="8" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="H48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="24"/>
-      <c r="C49" s="26">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="26"/>
+      <c r="C49" s="28">
         <v>3</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2225,15 +2480,15 @@
       <c r="H49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2243,59 +2498,59 @@
       <c r="H50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="8" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="26"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="9" t="s">
+      <c r="H51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="13" t="str">
+      <c r="E52" s="15" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="16" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="C53" s="17">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="19">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2305,23 +2560,23 @@
         <f t="shared" ref="E53:E67" si="0">"-"</f>
         <v>-</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="8" t="s">
         <v>73</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I53" s="7" t="str">
         <f t="shared" ref="I53:I67" si="1">"-"</f>
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="C54" s="17">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2331,23 +2586,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="C55" s="17">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="19">
         <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2357,23 +2612,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I55" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="17">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="C56" s="19">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2383,23 +2638,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="24"/>
-      <c r="C57" s="17">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2409,23 +2664,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I57" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="17">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="26"/>
+      <c r="C58" s="19">
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2435,23 +2690,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="17">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="26"/>
+      <c r="C59" s="19">
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2461,23 +2716,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="17">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="26"/>
+      <c r="C60" s="19">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2487,23 +2742,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="17">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="26"/>
+      <c r="C61" s="19">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2513,23 +2768,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="17">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="26"/>
+      <c r="C62" s="19">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2539,23 +2794,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="17">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="19">
         <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2565,23 +2820,26 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="17">
+      <c r="K63" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
+      <c r="C64" s="19">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2591,23 +2849,26 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="8" t="s">
         <v>79</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="17">
+      <c r="K64" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="C65" s="19">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2617,23 +2878,23 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="8" t="s">
         <v>80</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="24"/>
-      <c r="C66" s="17">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
+      <c r="C66" s="19">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2643,64 +2904,576 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" s="7" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="C67" s="18">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="26"/>
+      <c r="C67" s="20">
         <v>15</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="8" t="str">
+      <c r="E67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="9" t="str">
+      <c r="I67" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="J67" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" s="46"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="15" t="str">
+        <f t="shared" ref="D68:E81" si="2">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="E68" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K68" s="42"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E69" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K69" s="42"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="37"/>
+      <c r="C70" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E70" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K70" s="42"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E71" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K71" s="42"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E72" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K72" s="42"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E73" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K73" s="42"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="37"/>
+      <c r="C74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E74" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K74" s="42"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="37"/>
+      <c r="C75" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E75" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K75" s="42"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="37"/>
+      <c r="C76" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E76" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K76" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="37"/>
+      <c r="C77" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E77" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K77" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="37"/>
+      <c r="C78" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E78" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="37"/>
+      <c r="C79" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E79" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="37"/>
+      <c r="C80" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E80" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="K80" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="37"/>
+      <c r="C81" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E81" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I81" s="7" t="str">
+        <f t="shared" ref="I81" si="3">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K81" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="37"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="54"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="37"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="16"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="28"/>
+      <c r="C84" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="K84" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="37"/>
+      <c r="C85" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="K85" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="38"/>
+      <c r="C86" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
+    <mergeCell ref="B68:B86"/>
+    <mergeCell ref="J67:K67"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E15:E18"/>

--- a/Kicad/STM32F412ZGT6_GPIO_Interfaces.xlsx
+++ b/Kicad/STM32F412ZGT6_GPIO_Interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagno\OneDrive\Documents\Github\Ordinateur-de-bord\Kicad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1255BA-302E-4702-AC22-4B83C56D6E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C2D46D-2E42-4B3F-A39A-19B8AB03A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,28 +904,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,73 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
@@ -1414,16 +1408,16 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="47" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1438,7 +1432,7 @@
       <c r="I3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="50" t="s">
         <v>94</v>
       </c>
       <c r="L3" s="22" t="s">
@@ -1446,10 +1440,10 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1462,16 +1456,16 @@
       <c r="I4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1492,10 +1486,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1508,7 +1502,7 @@
       <c r="I6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="50" t="s">
         <v>101</v>
       </c>
       <c r="L6" s="22" t="s">
@@ -1516,14 +1510,14 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27">
+      <c r="B7" s="50"/>
+      <c r="C7" s="52">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="47" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1538,16 +1532,16 @@
       <c r="I7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1568,10 +1562,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1592,10 +1586,10 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
@@ -1608,19 +1602,19 @@
       <c r="I10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27">
+      <c r="B11" s="50"/>
+      <c r="C11" s="52">
         <v>3</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="47" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -1635,13 +1629,13 @@
       <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1654,13 +1648,13 @@
       <c r="I12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,13 +1667,13 @@
       <c r="I13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
@@ -1692,17 +1686,17 @@
       <c r="I14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27">
+      <c r="B15" s="50"/>
+      <c r="C15" s="52">
         <v>4</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="47" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -1717,13 +1711,13 @@
       <c r="I15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1736,13 +1730,13 @@
       <c r="I16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,13 +1749,13 @@
       <c r="I17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="9" t="s">
         <v>64</v>
       </c>
@@ -1774,17 +1768,17 @@
       <c r="I18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27">
+      <c r="B19" s="50"/>
+      <c r="C19" s="52">
         <v>5</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="47" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -1799,13 +1793,13 @@
       <c r="I19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1818,13 +1812,13 @@
       <c r="I20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1837,13 +1831,13 @@
       <c r="I21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="9" t="s">
         <v>64</v>
       </c>
@@ -1856,19 +1850,19 @@
       <c r="I22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="37"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="52">
         <v>1</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="47" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -1883,13 +1877,13 @@
       <c r="I23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1902,13 +1896,13 @@
       <c r="I24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1921,13 +1915,13 @@
       <c r="I25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="37"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1940,13 +1934,13 @@
       <c r="I26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1964,14 +1958,14 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27">
+      <c r="B28" s="50"/>
+      <c r="C28" s="52">
         <v>2</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="47" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -1988,10 +1982,10 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2006,10 +2000,10 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2024,10 +2018,10 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2042,10 +2036,10 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="9" t="s">
         <v>8</v>
       </c>
@@ -2060,14 +2054,14 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="27">
+      <c r="B33" s="50"/>
+      <c r="C33" s="52">
         <v>3</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="47" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="15" t="s">
@@ -2082,20 +2076,20 @@
       <c r="I33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2123,10 +2117,10 @@
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
@@ -2150,10 +2144,10 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2181,10 +2175,10 @@
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="9" t="s">
         <v>8</v>
       </c>
@@ -2212,14 +2206,14 @@
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27">
+      <c r="B38" s="50"/>
+      <c r="C38" s="52">
         <v>6</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="47" t="s">
         <v>68</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -2245,10 +2239,10 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2276,10 +2270,10 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="2" t="s">
         <v>6</v>
       </c>
@@ -2303,10 +2297,10 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="2" t="s">
         <v>7</v>
       </c>
@@ -2321,10 +2315,10 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2339,16 +2333,16 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="53" t="s">
         <v>92</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -2365,10 +2359,10 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2383,10 +2377,10 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="35"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="9" t="s">
         <v>11</v>
       </c>
@@ -2401,14 +2395,14 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27">
+      <c r="B46" s="50"/>
+      <c r="C46" s="52">
         <v>2</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="47" t="s">
         <v>67</v>
       </c>
       <c r="F46" s="15" t="s">
@@ -2425,10 +2419,10 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2443,10 +2437,10 @@
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="9" t="s">
         <v>11</v>
       </c>
@@ -2461,14 +2455,14 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="C49" s="28">
+      <c r="B49" s="50"/>
+      <c r="C49" s="43">
         <v>3</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="48" t="s">
         <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2485,10 +2479,10 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2503,10 +2497,10 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="9" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2515,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="50" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="18">
@@ -2549,7 +2543,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="19">
         <v>1</v>
       </c>
@@ -2575,7 +2569,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="19">
         <v>2</v>
       </c>
@@ -2601,7 +2595,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="19">
         <v>3</v>
       </c>
@@ -2627,7 +2621,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="26"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="19">
         <v>4</v>
       </c>
@@ -2653,7 +2647,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="26"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="19">
         <v>5</v>
       </c>
@@ -2679,7 +2673,7 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="19">
         <v>6</v>
       </c>
@@ -2705,7 +2699,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="19">
         <v>7</v>
       </c>
@@ -2731,7 +2725,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="19">
         <v>8</v>
       </c>
@@ -2757,7 +2751,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="19">
         <v>9</v>
       </c>
@@ -2783,7 +2777,7 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="19">
         <v>10</v>
       </c>
@@ -2809,7 +2803,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="26"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="19">
         <v>11</v>
       </c>
@@ -2838,7 +2832,7 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="19">
         <v>12</v>
       </c>
@@ -2867,7 +2861,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="19">
         <v>13</v>
       </c>
@@ -2893,7 +2887,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="26"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="19">
         <v>14</v>
       </c>
@@ -2919,7 +2913,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="26"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="20">
         <v>15</v>
       </c>
@@ -2949,7 +2943,7 @@
       <c r="K67" s="46"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -2978,28 +2972,28 @@
       <c r="J68" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K68" s="42"/>
+      <c r="K68" s="26"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="37"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="39" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E69" s="39" t="str">
+      <c r="E69" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="G69" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I69" s="7" t="s">
@@ -3008,28 +3002,28 @@
       <c r="J69" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K69" s="42"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="39" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E70" s="39" t="str">
+      <c r="E70" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="G70" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I70" s="7" t="s">
@@ -3038,28 +3032,28 @@
       <c r="J70" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K70" s="42"/>
+      <c r="K70" s="26"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="37"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="39" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E71" s="39" t="str">
+      <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I71" s="7" t="s">
@@ -3068,28 +3062,28 @@
       <c r="J71" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K71" s="42"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="37"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="39" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E72" s="39" t="str">
+      <c r="E72" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="39" t="s">
+      <c r="G72" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H72" s="39" t="s">
+      <c r="H72" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -3098,28 +3092,28 @@
       <c r="J72" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K72" s="42"/>
+      <c r="K72" s="26"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="37"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="39" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E73" s="39" t="str">
+      <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I73" s="7" t="s">
@@ -3128,28 +3122,28 @@
       <c r="J73" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K73" s="42"/>
+      <c r="K73" s="26"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="37"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="39" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E74" s="39" t="str">
+      <c r="E74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="H74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -3158,28 +3152,28 @@
       <c r="J74" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K74" s="42"/>
+      <c r="K74" s="26"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="37"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="39" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E75" s="39" t="str">
+      <c r="E75" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I75" s="7" t="s">
@@ -3188,28 +3182,28 @@
       <c r="J75" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K75" s="42"/>
+      <c r="K75" s="26"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="37"/>
-      <c r="C76" s="47" t="s">
+      <c r="B76" s="42"/>
+      <c r="C76" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D76" s="39" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E76" s="39" t="str">
+      <c r="E76" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I76" s="7" t="s">
@@ -3218,30 +3212,30 @@
       <c r="J76" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K76" s="43" t="s">
+      <c r="K76" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="37"/>
-      <c r="C77" s="47" t="s">
+      <c r="B77" s="42"/>
+      <c r="C77" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="39" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E77" s="39" t="str">
+      <c r="E77" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I77" s="7" t="s">
@@ -3250,30 +3244,30 @@
       <c r="J77" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K77" s="43" t="s">
+      <c r="K77" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="37"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="39" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E78" s="39" t="str">
+      <c r="E78" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F78" s="40" t="s">
+      <c r="F78" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G78" s="39" t="s">
+      <c r="G78" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H78" s="39" t="s">
+      <c r="H78" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I78" s="7" t="s">
@@ -3282,94 +3276,94 @@
       <c r="J78" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="42" t="s">
+      <c r="K78" s="26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="37"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="39" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E79" s="39" t="str">
+      <c r="E79" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J79" s="44" t="s">
+      <c r="J79" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="K79" s="42" t="s">
+      <c r="K79" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="37"/>
-      <c r="C80" s="47" t="s">
+      <c r="B80" s="42"/>
+      <c r="C80" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="48" t="str">
+      <c r="D80" s="30" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E80" s="48" t="str">
+      <c r="E80" s="30" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="48" t="s">
+      <c r="G80" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I80" s="50" t="s">
+      <c r="H80" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="J80" s="47" t="s">
+      <c r="J80" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="K80" s="51" t="s">
+      <c r="K80" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D81" s="39" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E81" s="39" t="str">
+      <c r="E81" s="2" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="2" t="s">
         <v>171</v>
       </c>
       <c r="I81" s="7" t="str">
@@ -3379,24 +3373,24 @@
       <c r="J81" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K81" s="43" t="s">
+      <c r="K81" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="37"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="54"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="36"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="37"/>
+      <c r="B83" s="42"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -3406,38 +3400,38 @@
       <c r="K83" s="7"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="47" t="s">
+      <c r="B84" s="43"/>
+      <c r="C84" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="55" t="s">
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="K84" s="51" t="s">
+      <c r="K84" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="37"/>
-      <c r="C85" s="47" t="s">
+      <c r="B85" s="42"/>
+      <c r="C85" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="47" t="s">
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="K85" s="51" t="s">
+      <c r="K85" s="33" t="s">
         <v>184</v>
       </c>
       <c r="L85" s="1" t="s">
@@ -3445,18 +3439,18 @@
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="38"/>
-      <c r="C86" s="56" t="s">
+      <c r="B86" s="44"/>
+      <c r="C86" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="58"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="40"/>
       <c r="L86" s="1" t="s">
         <v>188</v>
       </c>
@@ -3472,12 +3466,20 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B68:B86"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D7:D10"/>
@@ -3488,13 +3490,19 @@
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E49:E51"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B68:B86"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E49:E51"/>
     <mergeCell ref="D33:D37"/>
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="E28:E32"/>
@@ -3504,20 +3512,6 @@
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="B23:B42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
